--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_13.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_13.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rei Hasegawa</t>
+          <t>Mikako Endo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
